--- a/pred_ohlcv/54_21/2019-11-15 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 LAMB ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-731312.2063999998</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-735141.4503999997</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-775018.6818999997</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-842943.6318999997</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-882362.9133999997</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-884211.1432999998</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-882758.4342999997</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-938024.0166999997</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1006592.7268</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-665946.4474224539</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-754228.8912224539</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-904894.7310224539</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-862394.3254224538</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-860772.0894224538</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-875932.5356224538</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-752937.2602224539</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-750539.8960224539</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-608981.2926224539</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-604658.9660224539</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-714679.9653224539</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-905922.3739224538</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-967590.9448224539</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-961894.7758224539</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-963651.8608224539</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-975851.8608224539</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-978461.4342224539</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1132570.219022454</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1015122.390122454</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-933165.4054224538</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-918775.9206224538</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-901787.7447224538</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-910876.3745224538</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-911418.3282224537</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-894318.3282224537</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-954187.6544076528</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1095284.379107653</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1279292.056507653</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1314553.836407653</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1421607.931207653</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1612475.812107653</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1712538.989707653</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1712538.989707653</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1714046.578707653</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1706046.578707653</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1706046.578707653</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1705556.184707653</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1705313.106607653</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1640070.028507653</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1665286.442507653</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1645286.442507653</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1672624.269607653</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1665050.683207653</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1640755.676507653</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1677355.618007653</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1671752.081307653</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1671752.081307653</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1673495.675107653</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1673495.675107653</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1683495.675107653</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1669095.675107653</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1964859.867107653</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1964848.867107653</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1972156.346707653</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1971226.943107652</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1971215.943107652</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1971215.943107652</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1951215.943107652</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1599687.925907652</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1520078.925907652</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1308448.282207652</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-822914.2330230959</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-855596.0048230959</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-849663.1031385398</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-884833.2944385398</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-973841.8631385397</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1236181.23793854</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1743924.102030033</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1638643.952530032</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-15 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 LAMB ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-741783.4325999998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-740502.4325999998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-741301.1978999998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-734055.7627999998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-731312.2063999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-736257.2290999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-735141.4503999997</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-774731.0736999997</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-775018.6818999997</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-842943.6318999997</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-847601.9192999997</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-902362.9133999997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-882362.9133999997</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-884211.1432999998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-882758.4342999997</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-939024.0166999997</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-938024.0166999997</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1006592.7268</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-991992.1578999998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-947777.4159999997</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-847810.1696999997</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-847810.1696999997</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-778762.2019507723</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-778964.7683224537</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-781445.7464224537</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-757127.8116224536</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-665946.4474224539</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-754228.8912224539</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-904894.7310224539</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-862394.3254224538</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-859353.8472224538</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-860772.0894224538</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-872785.2808224538</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-875932.5356224538</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-774269.5802224538</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-752937.2602224539</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-750592.3960224539</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-750539.8960224539</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-667852.0483224539</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-608981.2926224539</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-567655.3971224539</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-604658.9660224539</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-714679.9653224539</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-905922.3739224538</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-967870.9725224539</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-967590.9448224539</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-961894.7758224539</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-963651.8608224539</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-975851.8608224539</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-978461.4342224539</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1152954.866622454</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1124330.694522454</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1132570.219022454</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1015122.390122454</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-933165.4054224538</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-918775.9206224538</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-901787.7447224538</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-910876.3745224538</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-911418.3282224537</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-894318.3282224537</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-735171.0038224537</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-776845.1466224537</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-740020.1738224537</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-878810.4731639707</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-938510.5444428754</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-954187.6544076528</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1095284.379107653</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1279292.056507653</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1314553.836407653</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1421607.931207653</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1593475.812107653</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1712538.989707653</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1640070.028507653</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1650555.750807653</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1645035.611107653</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1672624.269607653</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1964848.867107653</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1869062.064507653</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1869051.064507653</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1602734.483907653</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1599687.925907652</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1599687.925907652</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1520078.925907652</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1519253.626707652</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1499231.081607652</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1308448.282207652</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1045041.639207652</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-755913.3853076518</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-822914.2330230959</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-855596.0048230959</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-848082.9628385399</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-849663.1031385398</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-884833.2944385398</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-973841.8631385397</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-919522.8866385397</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-965322.8866385397</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1037076.29503854</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1145269.33613854</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1221274.73833854</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1845452.577830033</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1825452.577830033</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1826904.250030033</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1842087.852630033</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1793295.405230033</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1817836.941330033</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1883490.871330033</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1911843.762230033</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1892681.021530033</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1899717.758630033</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1909786.239230033</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1879356.946030033</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1746492.804630033</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1745156.106830033</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1743924.102030033</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1622446.155630033</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1576696.623130033</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1590979.481630033</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1660010.307830033</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1614857.297530033</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1628992.001030033</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1632404.454630033</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1680163.709730033</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1682582.354230033</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1682582.354230033</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1682832.354230033</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1682982.825330033</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-2083410.113430033</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-2073085.689830032</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-2073085.689830032</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-2063320.846330032</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-2063320.846330032</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
